--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>NO</t>
   </si>
@@ -32,126 +32,238 @@
     <t>합 계 금 액</t>
   </si>
   <si>
-    <t>${data.MODULE_NM}</t>
+    <t>${info.FINAL_EST_UNIT_PRICE}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_AMT}</t>
+  </si>
+  <si>
+    <t>${data.ROWNUM}</t>
+  </si>
+  <si>
+    <t>Tel. ${info.COMP_TEL}</t>
+  </si>
+  <si>
+    <t>Fax. ${info.COMP_FAX}</t>
+  </si>
+  <si>
+    <t>거 래 명 세 표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도면번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급단가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장수량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액 계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 신</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참 조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제 목 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사업자번호 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상 호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대표이사 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">업태 및 종목 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_NM}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.ORDER_COMP_TYPE}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_NM}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.NOW}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_STATUS_NM}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_NUM}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${data.DRAWING_NUM}</t>
-  </si>
-  <si>
-    <t>${data.ITEM_QTY}</t>
-  </si>
-  <si>
-    <t>${info.FINAL_EST_UNIT_PRICE}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_FINAL_EST_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_MATERIAL_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_PROCESS_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_ETC_AMT}</t>
-  </si>
-  <si>
-    <t>${data.ROWNUM}</t>
-  </si>
-  <si>
-    <t>Tel. ${info.COMP_TEL}</t>
-  </si>
-  <si>
-    <t>Fax. ${info.COMP_FAX}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${data.SIZE_TXT}</t>
-  </si>
-  <si>
-    <t>거 래 명 세 표</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도면번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>규격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공급단가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액 계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수 신</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>참 조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">견적번호 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">제 목 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사업자번호 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상 호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대표이사 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주 소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">업태 및 종목 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_QTY}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_AMT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.TOTAL_AMT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.PACKING_CNT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.NOTE}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -172,7 +284,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_NUM}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -198,11 +336,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.EST_NUM}</t>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.CEO_NM}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,11 +362,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.COMP_TITLE}</t>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_ADDRESS}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,12 +388,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.ORDER_COMP_NUM}</t>
-    </r>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.INVOICE_TITLE}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INV no.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -276,141 +418,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.ORDER_COMP_NM}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.ORDER_CEO_NM}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.ORDER_COMP_ADDRESS}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.ORDER_COMP_TYPE}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.COMP_NM}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.NOW}</t>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${INVOICE_NUM}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -533,33 +545,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,19 +869,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -885,139 +897,139 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1028,76 +1040,73 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H9:J9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="B2:L2"/>
@@ -1108,6 +1117,11 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>NO</t>
   </si>
@@ -32,9 +32,6 @@
     <t>합 계 금 액</t>
   </si>
   <si>
-    <t>${info.FINAL_EST_UNIT_PRICE}</t>
-  </si>
-  <si>
     <t>${data.UNIT_MATERIAL_AMT}</t>
   </si>
   <si>
@@ -422,7 +419,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ${INVOICE_NUM}</t>
+      <t xml:space="preserve"> ${info.INVOICE_NUM}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -552,26 +549,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,19 +866,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -898,108 +895,108 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -1008,28 +1005,29 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <f>SUM($J12:$J1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1040,69 +1038,69 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -607,6 +607,81 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,81 +699,6 @@
     </xf>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -987,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -999,99 +997,99 @@
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="4.875" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="5.375" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="17" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="18"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="2:28" ht="17.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1101,83 +1099,83 @@
       <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="37"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
     </row>
     <row r="7" spans="2:28" ht="17.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="57" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
     </row>
     <row r="8" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="19"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
     </row>
     <row r="9" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="54"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1187,65 +1185,65 @@
       <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="46"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
     </row>
     <row r="10" spans="2:28" ht="25.5" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="17"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="2:28" ht="24.75" customHeight="1">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47" t="e">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55" t="e">
         <f>NUMBERSTRING(I11,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1254,10 +1252,10 @@
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1273,10 +1271,10 @@
       <c r="I12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="6" t="s">
         <v>24</v>
       </c>
@@ -1296,10 +1294,10 @@
       <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
@@ -1315,10 +1313,10 @@
       <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="8" t="s">
         <v>41</v>
       </c>
@@ -1336,425 +1334,425 @@
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="26"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="26"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="26"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="26"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="26"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="26"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="26"/>
       <c r="F19" s="12"/>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="26"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="26"/>
       <c r="F20" s="12"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="26"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="26"/>
       <c r="F21" s="12"/>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="26"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="26"/>
       <c r="F22" s="12"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="26"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="26"/>
       <c r="F23" s="12"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="26"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="26"/>
       <c r="F24" s="12"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="26"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="26"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="26"/>
       <c r="F25" s="12"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="26"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="26"/>
       <c r="F26" s="12"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="26"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="26"/>
       <c r="F27" s="12"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="26"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="26"/>
       <c r="F28" s="12"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="41"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="26"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="26"/>
       <c r="F29" s="12"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="26"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="26"/>
       <c r="F30" s="12"/>
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="26"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="26"/>
       <c r="F31" s="12"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="26"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="26"/>
       <c r="F32" s="12"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="26"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="26"/>
       <c r="F33" s="12"/>
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="26"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="26"/>
       <c r="F34" s="12"/>
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="26"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="26"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="26"/>
       <c r="F35" s="12"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="26"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="26"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="26"/>
       <c r="F36" s="12"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="26"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="26"/>
       <c r="F37" s="12"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="26"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="26"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="26"/>
       <c r="F38" s="12"/>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="26"/>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="26"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="26"/>
       <c r="F39" s="12"/>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="26"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="26"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="26"/>
       <c r="F40" s="12"/>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="41"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="26"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="26"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="26"/>
       <c r="F41" s="12"/>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="26"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="26"/>
       <c r="F42" s="12"/>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="41"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="26"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="26"/>
       <c r="F43" s="12"/>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="26"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35" t="s">
+      <c r="H44" s="59"/>
+      <c r="I44" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="34"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="27" t="s">
         <v>48</v>
       </c>
@@ -1766,27 +1764,65 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:Z10"/>
@@ -1803,65 +1839,27 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -236,11 +236,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${data.CONTROL_PART_QTY}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.WORK_TYPE_NM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_ORDER_QTY}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,6 +713,207 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -720,207 +921,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,89 +1230,89 @@
   <sheetData>
     <row r="1" spans="2:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="4" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="95" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
     </row>
     <row r="6" spans="2:28" ht="17.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="72"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1322,83 +1322,83 @@
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="51"/>
+      <c r="L6" s="73"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
     </row>
     <row r="7" spans="2:28" ht="17.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="69" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
     </row>
     <row r="8" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="55" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
     </row>
     <row r="9" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1408,66 +1408,66 @@
       <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="80"/>
+      <c r="L9" s="46"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
     </row>
     <row r="10" spans="2:28" ht="25.5" customHeight="1">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="12"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" spans="2:28" ht="24.75" customHeight="1">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92" t="str">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="str">
         <f>NUMBERSTRING(I11,1)</f>
         <v>영</v>
       </c>
-      <c r="G11" s="93"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="58">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1476,10 +1476,10 @@
       <c r="B12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="28" t="s">
         <v>17</v>
       </c>
@@ -1495,10 +1495,10 @@
       <c r="I12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="78"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="28" t="s">
         <v>22</v>
       </c>
@@ -1518,10 +1518,10 @@
       <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="21" t="s">
         <v>34</v>
       </c>
@@ -1529,18 +1529,18 @@
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="21" t="s">
         <v>37</v>
       </c>
@@ -1558,426 +1558,426 @@
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="21"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="21"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="21"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="21"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="21"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="21"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="21"/>
       <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="21"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="21"/>
       <c r="F20" s="8"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="21"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="21"/>
       <c r="F21" s="8"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="21"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="21"/>
       <c r="F22" s="8"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="21"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="21"/>
       <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="21"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="21"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="21"/>
       <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="21"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="21"/>
       <c r="F26" s="8"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="21"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="21"/>
       <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="21"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="21"/>
       <c r="F28" s="8"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="21"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="21"/>
       <c r="F29" s="8"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="21"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="21"/>
       <c r="F30" s="8"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="21"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="21"/>
       <c r="F31" s="8"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="21"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="21"/>
       <c r="F32" s="8"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="21"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="21"/>
       <c r="F33" s="8"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="21"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="21"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="21"/>
       <c r="F34" s="8"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="21"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="21"/>
       <c r="F35" s="8"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="21"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="21"/>
       <c r="F36" s="8"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="21"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="21"/>
       <c r="F37" s="8"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
       <c r="L37" s="21"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="21"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="21"/>
       <c r="F38" s="8"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="21"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="21"/>
       <c r="F39" s="8"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="21"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="21"/>
       <c r="F40" s="8"/>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="21"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="21"/>
       <c r="F41" s="8"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
       <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="21"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="21"/>
       <c r="F42" s="8"/>
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="21"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="21"/>
       <c r="F43" s="8"/>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
       <c r="L43" s="21"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="76"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="75" t="s">
+      <c r="G44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="76"/>
-      <c r="I44" s="98">
+      <c r="H44" s="33"/>
+      <c r="I44" s="34">
         <f>SUM($J$13:$K$43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="100"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="82"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="22" t="s">
         <v>43</v>
       </c>
@@ -1989,11 +1989,81 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="C41:D41"/>
@@ -2010,81 +2080,11 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -95,10 +95,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>관리번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>도면번호</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -179,9 +175,6 @@
     <t>${info.BUSINESS_ITEM}</t>
   </si>
   <si>
-    <t>${data.CONTROL_NUM}</t>
-  </si>
-  <si>
     <t>${data.DRAWING_NUM}</t>
   </si>
   <si>
@@ -241,6 +234,14 @@
   </si>
   <si>
     <t>${data.CONTROL_ORDER_QTY}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_NUM}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,13 +714,205 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,198 +922,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1230,244 +1233,244 @@
   <sheetData>
     <row r="1" spans="2:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="2:28" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="95" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="73" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="I5" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="13"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
     </row>
     <row r="6" spans="2:28" ht="17.25">
-      <c r="B6" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="73"/>
+      <c r="K6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="53"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="14"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
     </row>
     <row r="7" spans="2:28" ht="17.25">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="93" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="I7" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
     </row>
     <row r="8" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B8" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="79" t="s">
+      <c r="B8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
     </row>
     <row r="9" spans="2:28" ht="16.5" customHeight="1">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="46"/>
+      <c r="K9" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="82"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
     </row>
     <row r="10" spans="2:28" ht="25.5" customHeight="1">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="12"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
     </row>
     <row r="11" spans="2:28" ht="24.75" customHeight="1">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56" t="str">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92" t="str">
         <f>NUMBERSTRING(I11,1)</f>
         <v>영</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="94">
         <f>I44</f>
         <v>0</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1476,31 +1479,31 @@
       <c r="B12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="J12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="K12" s="80"/>
+      <c r="L12" s="28" t="s">
         <v>21</v>
-      </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="28" t="s">
-        <v>22</v>
       </c>
       <c r="R12" s="16"/>
       <c r="S12" s="17"/>
@@ -1516,33 +1519,33 @@
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="21" t="s">
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="K13" s="37"/>
+      <c r="L13" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
@@ -1558,437 +1561,517 @@
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="21"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="21"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="21"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="21"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="21"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="21"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="21"/>
       <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="21"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="21"/>
       <c r="F20" s="8"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="21"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="21"/>
       <c r="F21" s="8"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="21"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
       <c r="F22" s="8"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="21"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="21"/>
       <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="21"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="21"/>
       <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="21"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="21"/>
       <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="21"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="21"/>
       <c r="F26" s="8"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="21"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="21"/>
       <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="21"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="21"/>
       <c r="F28" s="8"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="21"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="21"/>
       <c r="F29" s="8"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="21"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="21"/>
       <c r="F30" s="8"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="21"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="21"/>
       <c r="F31" s="8"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="21"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="21"/>
       <c r="F32" s="8"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="21"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="21"/>
       <c r="F33" s="8"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="21"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="21"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="21"/>
       <c r="F34" s="8"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="21"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="21"/>
       <c r="F35" s="8"/>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="21"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="21"/>
       <c r="F36" s="8"/>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="21"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="21"/>
       <c r="F37" s="8"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="21"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="21"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="21"/>
       <c r="F38" s="8"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="21"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="21"/>
       <c r="F39" s="8"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="21"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="21"/>
       <c r="F40" s="8"/>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="21"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="21"/>
       <c r="F41" s="8"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="40"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="21"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="21"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="21"/>
       <c r="F42" s="8"/>
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="40"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="21"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="21"/>
       <c r="F43" s="8"/>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="21"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="78"/>
       <c r="F44" s="28"/>
-      <c r="G44" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34">
+      <c r="G44" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="78"/>
+      <c r="I44" s="98">
         <f>SUM($J$13:$K$43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="36"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="G45" s="77"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="25"/>
       <c r="L45" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B2:L4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="J32:K32"/>
@@ -2005,86 +2088,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B2:L4"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -460,21 +460,21 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,56 +487,56 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -824,9 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -846,250 +844,250 @@
   <sheetData>
     <row r="1" spans="1:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:28" ht="17.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:28" ht="17.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="32"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:28" ht="18" customHeight="1">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:28" ht="21.75" customHeight="1">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="17" t="str">
-        <f>NUMBERSTRING(I11,1)</f>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="str">
+        <f>NUMBERSTRING($I$11,1)</f>
         <v>영</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <f>I16</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1098,24 +1096,24 @@
       <c r="K14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
@@ -1131,7 +1129,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="15">
-        <f>SUM(K14:K16)</f>
+        <f t="shared" ref="I16:L16" si="0">SUM($K14:$K16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="15"/>
@@ -1204,28 +1202,28 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="I17:L17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -114,9 +114,6 @@
     <t>합  계  금  액</t>
   </si>
   <si>
-    <t xml:space="preserve">  원     (</t>
-  </si>
-  <si>
     <t>입   금</t>
   </si>
   <si>
@@ -176,15 +173,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${info.INVOICE_TITLE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.INVOICE_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원     (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${info.DATE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.INVOICE_TITLE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.INVOICE_NUM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -429,6 +430,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +499,7 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,11 +512,59 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -475,68 +581,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -824,7 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -844,297 +913,297 @@
   <sheetData>
     <row r="1" spans="1:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="17.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:28" ht="17.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26" t="s">
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:28" ht="18" customHeight="1">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:28" ht="21.75" customHeight="1">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="str">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="29" t="str">
         <f>NUMBERSTRING($I$11,1)</f>
         <v>영</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="35">
         <f>I16</f>
         <v>0</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="7" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
+      <c r="I14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="12.75" customHeight="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:28" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" ref="I16:L16" si="0">SUM($K14:$K16)</f>
+      <c r="I16" s="22">
+        <f t="shared" ref="I16" si="0">SUM($K14:$K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1154,23 +1223,23 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="3"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1190,6 +1259,34 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="D6:F6"/>
@@ -1205,34 +1302,6 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>거   래   명   세   표</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -137,42 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${data.DRAWING_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ITEM_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ROWNUM}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ORDER_NUM}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.CONTROL_ORDER_QTY}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.UNIT_FINAL_AMT}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.TOTAL_AMT}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.NOTE}//:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.INVOICE_TITLE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +150,38 @@
   </si>
   <si>
     <t>${info.DATE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ROWNUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.NOTE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.TOTAL_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_ORDER_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.DRAWING_NUM_ITEM_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +495,7 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +508,69 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,63 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -889,11 +891,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -913,297 +913,318 @@
   <sheetData>
     <row r="1" spans="1:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="33" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:28" ht="17.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:28" ht="17.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:28" ht="18" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:28" ht="21.75" customHeight="1">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29" t="str">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="str">
         <f>NUMBERSTRING($I$11,1)</f>
         <v>영</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="34" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="22">
+        <f>I15</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="12.75" customHeight="1">
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="12.75" customHeight="1">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:28" ht="25.5" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="35">
-        <f>I16</f>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="20">
+        <f>SUM($K14:$K15)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" customHeight="1">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="3"/>
-      <c r="B16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" ref="I16" si="0">SUM($K14:$K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1221,72 +1242,8 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="3"/>
-      <c r="B17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
+  <mergeCells count="36">
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="D6:F6"/>
@@ -1302,6 +1259,27 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/transaction_statement_template.xlsx
+++ b/src/main/resources/excelTemplate/transaction_statement_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_2021\jmes1\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,35 +153,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${data.ORDER_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.NOTE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.TOTAL_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_ORDER_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.DRAWING_NUM_ITEM_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${data.ROWNUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ORDER_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.NOTE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.TOTAL_AMT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.UNIT_FINAL_AMT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.CONTROL_ORDER_QTY}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.DRAWING_NUM_ITEM_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +526,66 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,12 +593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,60 +606,6 @@
     </xf>
     <xf numFmtId="42" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -893,302 +893,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="2" max="3" width="4.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" customFormat="1" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:28" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:28" ht="17.25">
-      <c r="B6" s="30" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.2">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:28" ht="17.25">
-      <c r="B7" s="30" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:28" ht="19.2">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:28" ht="18" customHeight="1">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:28" ht="21.75" customHeight="1">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="str">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="str">
         <f>NUMBERSTRING($I$11,1)</f>
         <v>영</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="25">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:28" ht="25.5" customHeight="1">
       <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="38">
         <f>SUM($K14:$K15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1208,23 +1210,23 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1244,6 +1246,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="D6:F6"/>
@@ -1259,27 +1282,6 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
